--- a/TP3/data/Mediciones/PsnrSsim.xlsx
+++ b/TP3/data/Mediciones/PsnrSsim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
   <si>
     <t>IMAGEN 1</t>
   </si>
@@ -70,13 +70,22 @@
   </si>
   <si>
     <t>SPL</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>Bilineal</t>
+  </si>
+  <si>
+    <t>Spline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +102,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,11 +162,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -482,7 +500,7 @@
         <v>0.96740000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -492,24 +510,185 @@
       <c r="C3">
         <v>0.98660000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>8</v>
+      </c>
+      <c r="R3" s="3">
+        <v>9</v>
+      </c>
+      <c r="S3" s="3">
+        <v>10</v>
+      </c>
+      <c r="T3" s="3">
+        <v>11</v>
+      </c>
+      <c r="U3" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>36.669600000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.9879</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>31.6477</v>
+      </c>
+      <c r="K4">
+        <v>25.7974</v>
+      </c>
+      <c r="L4">
+        <v>29.432200000000002</v>
+      </c>
+      <c r="M4">
+        <v>20.9039</v>
+      </c>
+      <c r="N4">
+        <v>29.539300000000001</v>
+      </c>
+      <c r="O4">
+        <v>26.944900000000001</v>
+      </c>
+      <c r="P4">
+        <v>29.8169</v>
+      </c>
+      <c r="Q4">
+        <v>25.8855</v>
+      </c>
+      <c r="R4">
+        <v>27.774799999999999</v>
+      </c>
+      <c r="S4">
+        <v>26.316099999999999</v>
+      </c>
+      <c r="T4">
+        <v>27.978400000000001</v>
+      </c>
+      <c r="U4">
+        <v>24.234500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>41.683100000000003</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.99480000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>36.360399999999998</v>
+      </c>
+      <c r="K5">
+        <v>28.581</v>
+      </c>
+      <c r="L5">
+        <v>34.3414</v>
+      </c>
+      <c r="M5">
+        <v>24.509699999999999</v>
+      </c>
+      <c r="N5">
+        <v>33.505800000000001</v>
+      </c>
+      <c r="O5">
+        <v>30.132999999999999</v>
+      </c>
+      <c r="P5">
+        <v>32.178800000000003</v>
+      </c>
+      <c r="Q5">
+        <v>29.068899999999999</v>
+      </c>
+      <c r="R5">
+        <v>32.2288</v>
+      </c>
+      <c r="S5">
+        <v>29.472000000000001</v>
+      </c>
+      <c r="T5">
+        <v>31.443899999999999</v>
+      </c>
+      <c r="U5">
+        <v>27.441400000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>36.669600000000003</v>
+      </c>
+      <c r="K6">
+        <v>29.711300000000001</v>
+      </c>
+      <c r="L6">
+        <v>34.775599999999997</v>
+      </c>
+      <c r="M6">
+        <v>25.755400000000002</v>
+      </c>
+      <c r="N6">
+        <v>34.353000000000002</v>
+      </c>
+      <c r="O6">
+        <v>31.1187</v>
+      </c>
+      <c r="P6">
+        <v>33.048099999999998</v>
+      </c>
+      <c r="Q6">
+        <v>30.256699999999999</v>
+      </c>
+      <c r="R6">
+        <v>33.559100000000001</v>
+      </c>
+      <c r="S6">
+        <v>30.361000000000001</v>
+      </c>
+      <c r="T6">
+        <v>32.323900000000002</v>
+      </c>
+      <c r="U6">
+        <v>28.636099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -519,8 +698,47 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>41.683100000000003</v>
+      </c>
+      <c r="K7">
+        <v>34.328800000000001</v>
+      </c>
+      <c r="L7">
+        <v>40.122399999999999</v>
+      </c>
+      <c r="M7">
+        <v>30.114699999999999</v>
+      </c>
+      <c r="N7">
+        <v>39.179000000000002</v>
+      </c>
+      <c r="O7">
+        <v>35.753</v>
+      </c>
+      <c r="P7">
+        <v>37.449300000000001</v>
+      </c>
+      <c r="Q7">
+        <v>34.764600000000002</v>
+      </c>
+      <c r="R7">
+        <v>38.282299999999999</v>
+      </c>
+      <c r="S7">
+        <v>35.3215</v>
+      </c>
+      <c r="T7">
+        <v>36.651400000000002</v>
+      </c>
+      <c r="U7">
+        <v>33.416899999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -531,7 +749,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -542,23 +760,145 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>29.711300000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>6</v>
+      </c>
+      <c r="P10" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
+        <v>9</v>
+      </c>
+      <c r="S10" s="3">
+        <v>10</v>
+      </c>
+      <c r="T10" s="3">
+        <v>11</v>
+      </c>
+      <c r="U10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>34.328800000000001</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>0.97409999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="M11">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="O11">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="R11">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="T11">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="U11">
+        <v>0.82320000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="K12">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="M12">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="N12">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="O12">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.9365</v>
+      </c>
+      <c r="R12">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="S12">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="T12">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="U12">
+        <v>0.90759999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -568,8 +908,47 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.9879</v>
+      </c>
+      <c r="K13">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="M13">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="N13">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="O13">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="P13">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="R13">
+        <v>0.9698</v>
+      </c>
+      <c r="S13">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="T13">
+        <v>0.96</v>
+      </c>
+      <c r="U13">
+        <v>0.93369999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -579,8 +958,47 @@
       <c r="C14">
         <v>0.94089999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="K14">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="L14">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="M14">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="N14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="P14">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="Q14">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="R14">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="S14">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="T14">
+        <v>0.9849</v>
+      </c>
+      <c r="U14">
+        <v>0.9768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -591,23 +1009,29 @@
         <v>0.97950000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>34.775599999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.98119999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>40.122399999999999</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>0.99339999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -618,7 +1042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -629,7 +1053,7 @@
         <v>0.75019999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -640,23 +1064,32 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>25.755400000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.89849999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>30.114699999999999</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>0.96130000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -667,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -678,7 +1111,7 @@
         <v>0.88290000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -689,23 +1122,29 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>34.353000000000002</v>
+      </c>
+      <c r="C28">
+        <v>0.94889999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>39.179000000000002</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -716,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -740,18 +1179,24 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>35.753</v>
+        <v>31.1187</v>
       </c>
       <c r="C34">
-        <v>0.97719999999999996</v>
+        <v>0.94089999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>35.753</v>
+      </c>
+      <c r="C35">
+        <v>0.97719999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,18 +1234,24 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>37.449300000000001</v>
+        <v>33.048099999999998</v>
       </c>
       <c r="C40">
-        <v>0.97109999999999996</v>
+        <v>0.92649999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>37.449300000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.97109999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,18 +1289,24 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>34.764600000000002</v>
+        <v>30.256699999999999</v>
       </c>
       <c r="C46">
-        <v>0.98099999999999998</v>
+        <v>0.95209999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>34.764600000000002</v>
+      </c>
+      <c r="C47">
+        <v>0.98099999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -887,18 +1344,24 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>38.282299999999999</v>
+        <v>33.559100000000001</v>
       </c>
       <c r="C52">
-        <v>0.98799999999999999</v>
+        <v>0.9698</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>38.282299999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,18 +1399,24 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>35.3215</v>
+        <v>30.361000000000001</v>
       </c>
       <c r="C58">
-        <v>0.98099999999999998</v>
+        <v>0.94610000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>35.3215</v>
+      </c>
+      <c r="C59">
+        <v>0.98099999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,18 +1454,24 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>36.651400000000002</v>
+        <v>32.323900000000002</v>
       </c>
       <c r="C64">
-        <v>0.9849</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>36.651400000000002</v>
+      </c>
+      <c r="C65">
+        <v>0.9849</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,18 +1509,24 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>33.416899999999998</v>
+        <v>28.636099999999999</v>
       </c>
       <c r="C70">
-        <v>0.9768</v>
+        <v>0.93369999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>33.416899999999998</v>
+      </c>
+      <c r="C71">
+        <v>0.9768</v>
       </c>
     </row>
   </sheetData>
